--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1162944.636850899</v>
+        <v>-1165644.528972123</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18.43298703918992</v>
       </c>
       <c r="C2" t="n">
-        <v>187.4341948993601</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>222.8036312246669</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>155.7836689523418</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>135.6626459129086</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>206.2882672191474</v>
+        <v>356.5208330470851</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -1072,7 +1072,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>19.68639289424775</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>107.0542596834228</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>18.73820027832414</v>
+        <v>153.8584668635702</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1190,16 +1190,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>36.89934373504829</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>72.71132756068864</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>78.91051008677871</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>218.8658348647368</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>18.50276072357119</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>156.0551722706133</v>
+        <v>29.24923305751697</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>128.3548363691463</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>26.05480806223585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.08368458989422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>98.84732537601437</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583776</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,7 +3187,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261727</v>
@@ -3196,16 +3196,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
         <v>124.3308255261727</v>
@@ -3433,16 +3433,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
         <v>124.3308255261727</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2124.334033584003</v>
+        <v>1732.249096495459</v>
       </c>
       <c r="C2" t="n">
-        <v>1935.00656398869</v>
+        <v>1363.286579555047</v>
       </c>
       <c r="D2" t="n">
-        <v>1576.74086538194</v>
+        <v>1005.020880948297</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.952612783695</v>
+        <v>1005.020880948297</v>
       </c>
       <c r="F2" t="n">
         <v>779.966707994088</v>
@@ -4328,28 +4328,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>125.8997233870222</v>
       </c>
       <c r="K2" t="n">
-        <v>455.1003844723691</v>
+        <v>287.6947354520161</v>
       </c>
       <c r="L2" t="n">
-        <v>709.3239917354415</v>
+        <v>928.7179450719102</v>
       </c>
       <c r="M2" t="n">
-        <v>1005.394558293042</v>
+        <v>1569.741154691804</v>
       </c>
       <c r="N2" t="n">
-        <v>1646.417767912936</v>
+        <v>1875.216260927388</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.44097753283</v>
+        <v>2248.31439385836</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2448.618721147462</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4370,10 +4370,10 @@
         <v>2124.334033584003</v>
       </c>
       <c r="X2" t="n">
-        <v>2124.334033584003</v>
+        <v>1750.868275322924</v>
       </c>
       <c r="Y2" t="n">
-        <v>2124.334033584003</v>
+        <v>1750.868275322924</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093858</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.0767771814608</v>
+        <v>367.625985748637</v>
       </c>
       <c r="C4" t="n">
-        <v>496.7195358154589</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E4" t="n">
         <v>198.6898028207301</v>
@@ -4519,19 +4519,19 @@
         <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>1022.06568235322</v>
       </c>
       <c r="V4" t="n">
-        <v>1056.517821155231</v>
+        <v>1022.06568235322</v>
       </c>
       <c r="W4" t="n">
-        <v>1056.517821155231</v>
+        <v>732.648512316259</v>
       </c>
       <c r="X4" t="n">
-        <v>1056.517821155231</v>
+        <v>504.6589614182417</v>
       </c>
       <c r="Y4" t="n">
-        <v>835.7252420117005</v>
+        <v>367.625985748637</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.210495323839</v>
+        <v>1146.0956252021</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.247978383427</v>
+        <v>777.133108261688</v>
       </c>
       <c r="D5" t="n">
-        <v>974.9822797766769</v>
+        <v>418.8674096549375</v>
       </c>
       <c r="E5" t="n">
-        <v>974.9822797766769</v>
+        <v>418.8674096549375</v>
       </c>
       <c r="F5" t="n">
-        <v>563.9963749870694</v>
+        <v>411.921908905734</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4565,25 +4565,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.815585560731</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.815585560731</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.349827299651</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.210495323839</v>
+        <v>1532.695465266221</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421437</v>
+        <v>1079.007699493407</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344692</v>
+        <v>1445.313588985732</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160212</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.8893808408909</v>
+        <v>685.2728561383485</v>
       </c>
       <c r="C7" t="n">
-        <v>918.8893808408909</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="D7" t="n">
-        <v>768.7727414285552</v>
+        <v>516.3366732104416</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1328.527396569148</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U7" t="n">
-        <v>1328.527396569148</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="V7" t="n">
-        <v>1328.527396569148</v>
+        <v>1195.84951595396</v>
       </c>
       <c r="W7" t="n">
-        <v>1328.527396569148</v>
+        <v>1087.713900112118</v>
       </c>
       <c r="X7" t="n">
-        <v>1100.537845671131</v>
+        <v>1087.713900112118</v>
       </c>
       <c r="Y7" t="n">
-        <v>1100.537845671131</v>
+        <v>866.9213209685882</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>887.2172524547996</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="C8" t="n">
-        <v>887.2172524547996</v>
+        <v>1427.742774258078</v>
       </c>
       <c r="D8" t="n">
-        <v>528.9515538480491</v>
+        <v>1069.477075651328</v>
       </c>
       <c r="E8" t="n">
-        <v>143.1633012498049</v>
+        <v>683.6888230530838</v>
       </c>
       <c r="F8" t="n">
-        <v>136.2178005006014</v>
+        <v>272.7029182634762</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560731</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2127.768178542061</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.590997961805</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W8" t="n">
-        <v>1650.822342691691</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.356584430611</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.2172524547996</v>
+        <v>1796.70529119849</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682815</v>
+        <v>426.7768722128337</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845962</v>
+        <v>724.0888213291485</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1617.794731802664</v>
+        <v>1480.804272147217</v>
       </c>
       <c r="O9" t="n">
-        <v>1952.723412518195</v>
+        <v>1815.732952862748</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>659.1548583094815</v>
+        <v>326.2821589709298</v>
       </c>
       <c r="C10" t="n">
-        <v>659.1548583094815</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="D10" t="n">
-        <v>659.1548583094815</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="E10" t="n">
-        <v>511.2417647270884</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482517</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="G10" t="n">
-        <v>305.9935116101411</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H10" t="n">
         <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.049095695859</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.049095695859</v>
+        <v>1052.032282044017</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.364607489972</v>
+        <v>797.3477938381302</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9474374530116</v>
+        <v>507.9306238011695</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9474374530116</v>
+        <v>507.9306238011695</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.1548583094815</v>
+        <v>507.9306238011695</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171283</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892214</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487565</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831763</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625876</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588915</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690898</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.103530547368</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1823.430183384634</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1568.745695178747</v>
       </c>
       <c r="W16" t="n">
-        <v>1415.011708352283</v>
+        <v>1279.328525141787</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.022157454266</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y16" t="n">
-        <v>966.2295783107356</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>481.447947124485</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420919</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>333.5348535420919</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5829,7 +5829,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5838,10 +5838,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5944,16 +5944,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,25 +6002,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6178,19 +6178,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,13 +6856,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7072,22 +7072,22 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,16 +7546,16 @@
         <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,34 +7564,34 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150021</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.76851115644672</v>
+        <v>407.4751802037413</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>348.4370131942355</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659704</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>369.6030205083451</v>
+        <v>98.97162991347454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>94.03868032505619</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>299.8549597144486</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>245.46701043772</v>
+        <v>173.7639243740395</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>364.3008546242907</v>
       </c>
       <c r="C2" t="n">
-        <v>177.8386968716475</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>61.84974016558444</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>69.70496293143364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>67.31863952450735</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>268.0202376130198</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>9.468966021655547</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>38.89198472948149</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>80.44045370237463</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>187.3371490132298</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.11969353038613</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1236388.060212371</v>
+        <v>1236388.06021237</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1236388.060212371</v>
+        <v>1236388.06021237</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1236388.06021237</v>
+        <v>1236388.060212371</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1236388.06021237</v>
+        <v>1236388.060212371</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048896</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
@@ -26320,7 +26320,7 @@
         <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
@@ -26329,28 +26329,28 @@
         <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="I2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="J2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="I2" t="n">
-        <v>181607.9849302514</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="K2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="L2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26366,16 +26366,16 @@
         <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898953</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>169414.0168260481</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="M3" t="n">
         <v>130884.4569042352</v>
@@ -26418,31 +26418,31 @@
         <v>77576.42687802282</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="F4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>6287.480531695102</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695044</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695061</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695059</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695075</v>
-      </c>
       <c r="K4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>14278.33979478851</v>
@@ -26451,7 +26451,7 @@
         <v>14278.33979478851</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478851</v>
       </c>
       <c r="O4" t="n">
         <v>14278.33979478852</v>
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954277.5108455198</v>
+        <v>-954637.5938612375</v>
       </c>
       <c r="C6" t="n">
-        <v>-210577.805657189</v>
+        <v>-210577.8056571889</v>
       </c>
       <c r="D6" t="n">
-        <v>-37813.44586729357</v>
+        <v>-37813.44586729399</v>
       </c>
       <c r="E6" t="n">
-        <v>-426690.8931711016</v>
+        <v>-426725.631096537</v>
       </c>
       <c r="F6" t="n">
-        <v>74197.97457464896</v>
+        <v>74163.23664921345</v>
       </c>
       <c r="G6" t="n">
-        <v>74197.97457464931</v>
+        <v>74163.23664921364</v>
       </c>
       <c r="H6" t="n">
-        <v>74197.97457464923</v>
+        <v>74163.23664921352</v>
       </c>
       <c r="I6" t="n">
-        <v>74197.97457464923</v>
+        <v>74163.2366492131</v>
       </c>
       <c r="J6" t="n">
-        <v>-95216.04225139896</v>
+        <v>-95250.78017683451</v>
       </c>
       <c r="K6" t="n">
-        <v>74197.97457464923</v>
+        <v>74163.23664921362</v>
       </c>
       <c r="L6" t="n">
-        <v>47864.22457712793</v>
+        <v>47864.22457712807</v>
       </c>
       <c r="M6" t="n">
-        <v>-63592.51433347541</v>
+        <v>-63592.51433347547</v>
       </c>
       <c r="N6" t="n">
-        <v>67291.94257075971</v>
+        <v>67291.94257075974</v>
       </c>
       <c r="O6" t="n">
         <v>67291.94257075974</v>
       </c>
       <c r="P6" t="n">
-        <v>67291.94257075974</v>
+        <v>67291.94257075968</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
+        <v>939.7063906498445</v>
+      </c>
+      <c r="D3" t="n">
         <v>939.7063906498447</v>
-      </c>
-      <c r="D3" t="n">
-        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152237</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>184.0724145170446</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>324.3881984904692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>11.46315214628601</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>82.92200743918616</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>205.2367561627219</v>
+        <v>55.0041903347842</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27673,16 +27673,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>201.0188358191907</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>179.4687386531683</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>392.7868231035452</v>
+        <v>257.6665565182992</v>
       </c>
       <c r="H8" t="n">
         <v>300.7862872484598</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>108.521704287883</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>213.515271659017</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L12" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,10 +32339,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,13 +33263,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>74.84835158000254</v>
       </c>
       <c r="K2" t="n">
         <v>163.4293051161554</v>
       </c>
       <c r="L2" t="n">
-        <v>256.7915224879519</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>647.4981915352465</v>
+        <v>376.866800940376</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223249</v>
@@ -34720,7 +34720,7 @@
         <v>103.2802639586401</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931442</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>394.3537804425458</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>638.1667584170053</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>497.4637052508702</v>
+        <v>425.7606191871898</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L12" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998967</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462705</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
